--- a/Homework/HW1/FIN513_HW1.xlsx
+++ b/Homework/HW1/FIN513_HW1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -72,11 +72,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +127,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -397,11 +400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -412,7 +417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -435,7 +440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3">
         <v>1</v>
       </c>
@@ -458,7 +463,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>5</v>
       </c>
@@ -475,7 +480,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>10</v>
       </c>
@@ -492,7 +497,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -500,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="C8" s="3">
         <f>$G$3*((1+0.5*C3)/(1+0.5*F3))^(2*B3)</f>
         <v>1.4912968573601508</v>
@@ -510,7 +515,7 @@
         <v>1.4940268849758283</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="C9" s="3">
         <f>$G$3*((1+0.5*C4)/(1+0.5*F4))^(2*B4)</f>
         <v>1.4832741972392094</v>
@@ -520,7 +525,7 @@
         <v>1.4992583253134895</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="C10" s="3">
         <f>$G$3*((1+0.5*C5)/(1+0.5*F5))^(2*B5)</f>
         <v>1.5217887055123231</v>
